--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PROG\python_acts\python_exercises\CCS246\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB542F4D-5551-4B1B-884B-28CE0B4F43CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D87110-A5EA-435F-A67D-AD8AC068A7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NAME</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>LONGITUDE</t>
-  </si>
-  <si>
-    <t>Our Position</t>
   </si>
   <si>
     <t>Distance between in Km</t>
@@ -75,12 +72,6 @@
     <t>New York Botanical Garden</t>
   </si>
   <si>
-    <t>LA:</t>
-  </si>
-  <si>
-    <t>LO:</t>
-  </si>
-  <si>
     <t>Brooklyn Botanic Garden</t>
   </si>
   <si>
@@ -89,12 +80,18 @@
   <si>
     <t>Snug Harbor Cultural Center and Botanical Garden</t>
   </si>
+  <si>
+    <t>My Latitude</t>
+  </si>
+  <si>
+    <t>My Longitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -118,6 +115,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,12 +153,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +377,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -388,6 +393,8 @@
     <col min="9" max="9" width="21.140625" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -400,35 +407,37 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>40.863879788176803</v>
@@ -436,13 +445,13 @@
       <c r="C2">
         <v>-73.878268098448501</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="D2" s="4">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-74.006</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.15190000000000001</v>
       </c>
       <c r="G2">
@@ -472,7 +481,7 @@
     </row>
     <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>40.667315378140799</v>
@@ -480,20 +489,20 @@
       <c r="C3">
         <v>-73.963406819754894</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>40.712800000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>-74.006</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G5" si="0">RANK(H3,$H$2:$H$5,1)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>SQRT((B3-$D$3)^2 + (C3-$E$3)^2)</f>
         <v>6.231396175069219E-2</v>
       </c>
@@ -505,18 +514,18 @@
         <f>SUM((B3-$D$3) + (C3-$E$3))</f>
         <v>-2.8914416140963795E-3</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f t="shared" ref="K3:K5" si="2">RANK(L3,$L$2:$L$5,1)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <f t="shared" ref="L3:L5" si="3">((ABS(B3 - $D$3)^2) + (ABS(C3 - $E$3)^2))^(1/2)</f>
         <v>6.231396175069219E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>40.750456933569097</v>
@@ -524,7 +533,13 @@
       <c r="C4">
         <v>-73.829574970180303</v>
       </c>
-      <c r="F4" s="4">
+      <c r="D4" s="4">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-74.006</v>
+      </c>
+      <c r="F4" s="3">
         <v>3.7699999999999997E-2</v>
       </c>
       <c r="G4">
@@ -554,7 +569,7 @@
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>40.6451012678124</v>
@@ -562,7 +577,13 @@
       <c r="C5">
         <v>-74.104556486304205</v>
       </c>
-      <c r="F5" s="4">
+      <c r="D5" s="4">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-74.006</v>
+      </c>
+      <c r="F5" s="3">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="G5">
@@ -573,11 +594,11 @@
         <f>SQRT((B5-$D$3)^2 + (C5-$E$3)^2)</f>
         <v>0.11956796950872492</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f>SUM((B5-$D$3) + (C5-$E$3))</f>
         <v>-0.16625521849180558</v>
       </c>
@@ -603,54 +624,54 @@
     <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="65" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1589,5 +1610,6 @@
     <row r="1000" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PROG\python_acts\python_exercises\CCS246\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D87110-A5EA-435F-A67D-AD8AC068A7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41B9493-8A62-49DF-BC1D-A0117F5BB369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>NAME</t>
   </si>
@@ -48,9 +48,6 @@
     <t>LONGITUDE</t>
   </si>
   <si>
-    <t>Distance between in Km</t>
-  </si>
-  <si>
     <t>Euclidean Ranking</t>
   </si>
   <si>
@@ -85,6 +82,210 @@
   </si>
   <si>
     <t>My Longitude</t>
+  </si>
+  <si>
+    <t>13th Street Community Park &amp; Garden</t>
+  </si>
+  <si>
+    <t>Arboretum Youth Garden</t>
+  </si>
+  <si>
+    <t>Armed Forces Retirement Home Community-Resident Garden</t>
+  </si>
+  <si>
+    <t>Beet St Garden - Richardson Dwellings</t>
+  </si>
+  <si>
+    <t>Benning Garden</t>
+  </si>
+  <si>
+    <t>Bethel Christian Fellowship (11th St Bridge Park Plot)</t>
+  </si>
+  <si>
+    <t>Blair Road Community Garden</t>
+  </si>
+  <si>
+    <t>Brainfood Youth Garden</t>
+  </si>
+  <si>
+    <t>Bread for the City Rooftop Garden</t>
+  </si>
+  <si>
+    <t>Bruce Monroe</t>
+  </si>
+  <si>
+    <t>CAFB Urban Demonstration Garden</t>
+  </si>
+  <si>
+    <t>Dix St Garden (SoilFul Gardens)</t>
+  </si>
+  <si>
+    <t>Douglass Garden</t>
+  </si>
+  <si>
+    <t>Edgewood Gardens</t>
+  </si>
+  <si>
+    <t>Emery Garden</t>
+  </si>
+  <si>
+    <t>Euclid Street Garden</t>
+  </si>
+  <si>
+    <t>Ferebee Hope Community Garden</t>
+  </si>
+  <si>
+    <t>Fort Dupont Park Gardens</t>
+  </si>
+  <si>
+    <t>Fort Greble Garden</t>
+  </si>
+  <si>
+    <t>Fort Reno Garden</t>
+  </si>
+  <si>
+    <t>Fort Stanton Community Garden</t>
+  </si>
+  <si>
+    <t>Fort Stevens Community Garden</t>
+  </si>
+  <si>
+    <t>Friendship Garden</t>
+  </si>
+  <si>
+    <t>Ft. Stevens Garden</t>
+  </si>
+  <si>
+    <t>Glover Archbold Garden</t>
+  </si>
+  <si>
+    <t>Green SEED Community Garden</t>
+  </si>
+  <si>
+    <t>GroW Garden (GW University)</t>
+  </si>
+  <si>
+    <t>Hamilton Garden</t>
+  </si>
+  <si>
+    <t>Harry Thomas Gardens</t>
+  </si>
+  <si>
+    <t>Hill East Community Garden</t>
+  </si>
+  <si>
+    <t>Hillcrest Garden</t>
+  </si>
+  <si>
+    <t>Hilton Garden</t>
+  </si>
+  <si>
+    <t>Howard University Community Garden (Halo Green)</t>
+  </si>
+  <si>
+    <t>Kalorama Garden</t>
+  </si>
+  <si>
+    <t>Kingman Park-Rosdale Community Garden</t>
+  </si>
+  <si>
+    <t>King's Court Community Garden</t>
+  </si>
+  <si>
+    <t>Langdon Youth &amp; Community Garden</t>
+  </si>
+  <si>
+    <t>Lederer Youth Garden</t>
+  </si>
+  <si>
+    <t>Ledroit Gardens</t>
+  </si>
+  <si>
+    <t>Lincoln Heights</t>
+  </si>
+  <si>
+    <t>Lovejoy Community Garden</t>
+  </si>
+  <si>
+    <t>Mamie D. Lee Garden</t>
+  </si>
+  <si>
+    <t>Melvin Hazen Garden</t>
+  </si>
+  <si>
+    <t>Montana Garden</t>
+  </si>
+  <si>
+    <t>Mother Peace Garden</t>
+  </si>
+  <si>
+    <t>National Community church (11th St Bridge Park Plot)</t>
+  </si>
+  <si>
+    <t>Newark Street Community Garden</t>
+  </si>
+  <si>
+    <t>Noyes Gardens</t>
+  </si>
+  <si>
+    <t>Palisades Garden</t>
+  </si>
+  <si>
+    <t>Peabody Garden</t>
+  </si>
+  <si>
+    <t>Petworth 10th Quincy Kansas Community Garden</t>
+  </si>
+  <si>
+    <t>Pomegranate Alley Community Garden</t>
+  </si>
+  <si>
+    <t>Rock Creek Garden</t>
+  </si>
+  <si>
+    <t>RockStAr Garden</t>
+  </si>
+  <si>
+    <t>Shipley Community Garden</t>
+  </si>
+  <si>
+    <t>Southwest Garden</t>
+  </si>
+  <si>
+    <t>Taft Field Garden</t>
+  </si>
+  <si>
+    <t>Takoma Garden</t>
+  </si>
+  <si>
+    <t>Theodore Hagans Garden</t>
+  </si>
+  <si>
+    <t>Turkey Thicket Gardens</t>
+  </si>
+  <si>
+    <t>Twin Oaks Community Garden</t>
+  </si>
+  <si>
+    <t>Union Temple Baptist Church Garden (11th St Bridge Park Plot)</t>
+  </si>
+  <si>
+    <t>Upshur Garden</t>
+  </si>
+  <si>
+    <t>Victory Gardens Farm</t>
+  </si>
+  <si>
+    <t>Virginia Ave Community Garden</t>
+  </si>
+  <si>
+    <t>Wangari Gardens</t>
+  </si>
+  <si>
+    <t>West End Garden</t>
+  </si>
+  <si>
+    <t>Whitehaven Garden</t>
   </si>
 </sst>
 </file>
@@ -125,12 +326,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,10 +362,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,16 +584,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
@@ -407,37 +615,35 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>40.863879788176803</v>
@@ -451,37 +657,35 @@
       <c r="E2" s="4">
         <v>-74.006</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.15190000000000001</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="G2">
-        <f>RANK(H2,$H$2:$H$5,1)</f>
+        <f>RANK(H2,$H$2:$H$73,1)</f>
         <v>4</v>
       </c>
       <c r="H2">
-        <f>SQRT((B2-$D$3)^2 + (C2-$E$3)^2)</f>
+        <f>SQRT((B2-D2)^2 + (C2-E2)^2)</f>
         <v>0.19783968527448939</v>
       </c>
       <c r="I2">
-        <f>RANK(J2,$J$2:$J$5,1)</f>
+        <f>RANK(J2,$J$2:$J$73,1)</f>
+        <v>72</v>
+      </c>
+      <c r="J2">
+        <f>SUM((B2-D2) + (C2-E2))</f>
+        <v>0.27881168972830039</v>
+      </c>
+      <c r="K2">
+        <f>RANK(L2,$L$2:$L$73,1)</f>
         <v>4</v>
       </c>
-      <c r="J2">
-        <f>SUM((B2-$D$3) + (C2-$E$3))</f>
-        <v>0.27881168972830039</v>
-      </c>
-      <c r="K2">
-        <f>RANK(L2,$L$2:$L$5,1)</f>
-        <v>4</v>
-      </c>
       <c r="L2">
-        <f>((ABS(B2 - $D$3)^2) + (ABS(C2 - $E$3)^2))^(1/2)</f>
-        <v>0.19783968527448939</v>
+        <f>((ABS(B2 - D2)^2) + (ABS(C2 - E2)^2))^(1/3)</f>
+        <v>0.3395280102215058</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>40.667315378140799</v>
@@ -495,37 +699,35 @@
       <c r="E3" s="4">
         <v>-74.006</v>
       </c>
-      <c r="F3" s="3">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G5" si="0">RANK(H3,$H$2:$H$5,1)</f>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G66" si="0">RANK(H3,$H$2:$H$73,1)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="5">
-        <f>SQRT((B3-$D$3)^2 + (C3-$E$3)^2)</f>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H66" si="1">SQRT((B3-D3)^2 + (C3-E3)^2)</f>
         <v>6.231396175069219E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I5" si="1">RANK(J3,$J$2:$J$5,1)</f>
-        <v>2</v>
+        <f t="shared" ref="I3:I66" si="2">RANK(J3,$J$2:$J$73,1)</f>
+        <v>70</v>
       </c>
       <c r="J3">
-        <f>SUM((B3-$D$3) + (C3-$E$3))</f>
+        <f>SUM((B3-D3) + (C3-E3))</f>
         <v>-2.8914416140963795E-3</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K5" si="2">RANK(L3,$L$2:$L$5,1)</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="3">RANK(L3,$L$2:$L$73,1)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="5">
-        <f t="shared" ref="L3:L5" si="3">((ABS(B3 - $D$3)^2) + (ABS(C3 - $E$3)^2))^(1/2)</f>
-        <v>6.231396175069219E-2</v>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="4">((ABS(B3 - D3)^2) + (ABS(C3 - E3)^2))^(1/3)</f>
+        <v>0.15717745131208793</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>40.750456933569097</v>
@@ -539,37 +741,35 @@
       <c r="E4" s="4">
         <v>-74.006</v>
       </c>
-      <c r="F4" s="3">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="3"/>
+      <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H4">
-        <f>SQRT((B4-$D$3)^2 + (C4-$E$3)^2)</f>
+      <c r="H4" s="7">
+        <f t="shared" si="1"/>
         <v>0.18039910141879387</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J66" si="5">SUM((B4-D4) + (C4-E4))</f>
+        <v>0.21408196338879293</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J4">
-        <f>SUM((B4-$D$3) + (C4-$E$3))</f>
-        <v>0.21408196338879293</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
       <c r="L4">
-        <f t="shared" si="3"/>
-        <v>0.18039910141879387</v>
+        <f t="shared" si="4"/>
+        <v>0.31926862850203352</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>40.6451012678124</v>
@@ -583,111 +783,2827 @@
       <c r="E5" s="4">
         <v>-74.006</v>
       </c>
-      <c r="F5" s="3">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="3"/>
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H5">
-        <f>SQRT((B5-$D$3)^2 + (C5-$E$3)^2)</f>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
         <v>0.11956796950872492</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="1"/>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>-0.16625521849180558</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0.2427037962732142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>38.885192809999999</v>
+      </c>
+      <c r="C6">
+        <v>-76.988096959999993</v>
+      </c>
+      <c r="D6">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E6">
+        <v>-74.006</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3.4975777789465812</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>-4.8097041499999946</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>2.3041544522815562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>38.913392940000001</v>
+      </c>
+      <c r="C7">
+        <v>-76.971132769999997</v>
+      </c>
+      <c r="D7">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E7">
+        <v>-74.006</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>3.4684114679930489</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>-4.7645398299999968</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>2.291327015827187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>38.936692790000002</v>
+      </c>
+      <c r="C8">
+        <v>-77.01828802</v>
+      </c>
+      <c r="D8">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E8">
+        <v>-74.006</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>3.4969180626445198</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>-4.788395229999999</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>2.3038647020331542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>38.892859799999997</v>
+      </c>
+      <c r="C9">
+        <v>-76.924034399999996</v>
+      </c>
+      <c r="D9">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E9">
+        <v>-74.006</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>3.4390561337610346</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>-4.7379746000000011</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>2.2783800878771463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>38.879703190000001</v>
+      </c>
+      <c r="C10">
+        <v>-76.928394879999999</v>
+      </c>
+      <c r="D10">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E10">
+        <v>-74.006</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>3.4497298081853289</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>-4.7554916899999995</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>2.2830918700528278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>38.864133070000001</v>
+      </c>
+      <c r="C11">
+        <v>-76.989683630000002</v>
+      </c>
+      <c r="D11">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E11">
+        <v>-74.006</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>3.5099768406651362</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>-4.8323505600000018</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>2.3095967901278858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>38.960580950000001</v>
+      </c>
+      <c r="C12">
+        <v>-77.008344840000007</v>
+      </c>
+      <c r="D12">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E12">
+        <v>-74.006</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>3.4762546134392354</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>-4.7545638900000071</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>2.2947799788413206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>38.902665939999999</v>
+      </c>
+      <c r="C13">
+        <v>-77.024859109999994</v>
+      </c>
+      <c r="D13">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E13">
+        <v>-74.006</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>3.5199567669507035</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>-4.8289931699999968</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>2.3139726398285032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>38.910121889999999</v>
+      </c>
+      <c r="C14">
+        <v>-77.021655390000006</v>
+      </c>
+      <c r="D14">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E14">
+        <v>-74.006</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3.5133781179242964</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>-4.8183335000000085</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>2.3110885969072092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>38.928209320000001</v>
+      </c>
+      <c r="C15">
+        <v>-77.024514089999997</v>
+      </c>
+      <c r="D15">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E15">
+        <v>-74.006</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3.506592535021908</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>-4.8031047699999974</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>2.3081119487872992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>38.949194589999998</v>
+      </c>
+      <c r="C16">
+        <v>-77.000556720000006</v>
+      </c>
+      <c r="D16">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E16">
+        <v>-74.006</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>3.4752948064126117</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>-4.7581621300000094</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>2.2943575611224762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>38.89509486</v>
+      </c>
+      <c r="C17">
+        <v>-76.923686989999993</v>
+      </c>
+      <c r="D17">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E17">
+        <v>-74.006</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>3.437578995106533</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>-4.7353921299999939</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>2.2777276367131249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>38.852835859999999</v>
+      </c>
+      <c r="C18">
+        <v>-76.977811020000004</v>
+      </c>
+      <c r="D18">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E18">
+        <v>-74.006</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>3.5058704112786905</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>-4.8317751600000065</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>2.3077950600251413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>38.924702840000002</v>
+      </c>
+      <c r="C19">
+        <v>-77.001775120000005</v>
+      </c>
+      <c r="D19">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E19">
+        <v>-74.006</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>3.4888336193076199</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>-4.7838722800000042</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>2.3003124983843373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>38.959826890000002</v>
+      </c>
+      <c r="C20">
+        <v>-77.026257770000001</v>
+      </c>
+      <c r="D20">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E20">
+        <v>-74.006</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>3.492115651239009</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>-4.7732308799999998</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>2.3017549128017079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>38.923331500000003</v>
+      </c>
+      <c r="C21">
+        <v>-77.032813259999998</v>
+      </c>
+      <c r="D21">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E21">
+        <v>-74.006</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>3.516218995370461</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>-4.8162817599999954</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>2.3123342423170006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>38.83277648</v>
+      </c>
+      <c r="C22">
+        <v>-76.996760969999997</v>
+      </c>
+      <c r="D22">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E22">
+        <v>-74.006</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>3.5325825702209026</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="5"/>
+        <v>-4.8707844899999984</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>2.3195026936093273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>38.87654251</v>
+      </c>
+      <c r="C23">
+        <v>-76.949927189999997</v>
+      </c>
+      <c r="D23">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E23">
+        <v>-74.006</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>3.4696612038644896</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>-4.7801846799999979</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>2.2918773891326989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>38.82664243</v>
+      </c>
+      <c r="C24">
+        <v>-77.014893529999995</v>
+      </c>
+      <c r="D24">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E24">
+        <v>-74.006</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>3.5512012972716911</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J5" s="5">
-        <f>SUM((B5-$D$3) + (C5-$E$3))</f>
-        <v>-0.16625521849180558</v>
-      </c>
-      <c r="K5">
+      <c r="J24" s="6">
+        <f t="shared" si="5"/>
+        <v>-4.8950510999999963</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>2.3276456200760114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>38.951631280000001</v>
+      </c>
+      <c r="C25">
+        <v>-77.079689439999996</v>
+      </c>
+      <c r="D25">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E25">
+        <v>-74.006</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>3.5424965820553624</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>-4.834858159999996</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>2.3238403765192213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>38.857582669999999</v>
+      </c>
+      <c r="C26">
+        <v>-76.978728380000007</v>
+      </c>
+      <c r="D26">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E26">
+        <v>-74.006</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>3.5041326120439278</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>-4.8279457100000087</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>2.3070323743174415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>38.963675459999997</v>
+      </c>
+      <c r="C27">
+        <v>-77.030466829999995</v>
+      </c>
+      <c r="D27">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E27">
+        <v>-74.006</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>3.4938283103496142</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>-4.7735913699999983</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>2.3025074268952292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>38.944390030000001</v>
+      </c>
+      <c r="C28">
+        <v>-77.087856610000003</v>
+      </c>
+      <c r="D28">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E28">
+        <v>-74.006</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>3.5531836409895998</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>-4.8502665800000031</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>2.3285117616255384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>38.970526589999999</v>
+      </c>
+      <c r="C29">
+        <v>-77.030967259999997</v>
+      </c>
+      <c r="D29">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E29">
+        <v>-74.006</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>3.4908370857524886</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>-4.7672406699999996</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>2.3011930520662545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>38.925248119999999</v>
+      </c>
+      <c r="C30">
+        <v>-77.081998619999993</v>
+      </c>
+      <c r="D30">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E30">
+        <v>-74.006</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>3.5576831272519764</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>-4.8635504999999952</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>2.3304771158444915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>38.883436109999998</v>
+      </c>
+      <c r="C31">
+        <v>-76.979886339999993</v>
+      </c>
+      <c r="D31">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E31">
+        <v>-74.006</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>3.4914999935950881</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>-4.8032502299999962</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>2.3014843729551795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>38.899688900000001</v>
+      </c>
+      <c r="C32">
+        <v>-77.051008109999998</v>
+      </c>
+      <c r="D32">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E32">
+        <v>-74.006</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>3.5439309038000402</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>-4.8581192099999981</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>2.3244676008172886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>38.952503569999998</v>
+      </c>
+      <c r="C33">
+        <v>-77.03132866</v>
+      </c>
+      <c r="D33">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E33">
+        <v>-74.006</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>3.5001795700346792</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>-4.7856250900000035</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>2.3052969926126243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>38.914318289999997</v>
+      </c>
+      <c r="C34">
+        <v>-77.006673800000002</v>
+      </c>
+      <c r="D34">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E34">
+        <v>-74.006</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>3.4983681503253754</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>-4.7991555100000056</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>2.304501562818094</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>38.884633809999997</v>
+      </c>
+      <c r="C35">
+        <v>-76.979920309999997</v>
+      </c>
+      <c r="D35">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E35">
+        <v>-74.006</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>3.4909015495269426</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>-4.8020865000000015</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>2.3012213820684249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>38.857912650000003</v>
+      </c>
+      <c r="C36">
+        <v>-76.963256810000004</v>
+      </c>
+      <c r="D36">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E36">
+        <v>-74.006</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>3.4908415778263868</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>-4.8121441600000026</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>2.3011950262110936</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>38.892540140000001</v>
+      </c>
+      <c r="C37">
+        <v>-76.998727279999997</v>
+      </c>
+      <c r="D37">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E37">
+        <v>-74.006</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>3.5028220808918342</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>-4.8129871399999971</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>2.3064571247249557</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>38.92040695</v>
+      </c>
+      <c r="C38">
+        <v>-77.02494489</v>
+      </c>
+      <c r="D38">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E38">
+        <v>-74.006</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>3.5109402009355586</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>-4.8113379400000014</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>2.3100193706980194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>38.919931750000003</v>
+      </c>
+      <c r="C39">
+        <v>-77.04447098</v>
+      </c>
+      <c r="D39">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E39">
+        <v>-74.006</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>3.5279856091203396</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>-4.8313392299999975</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>2.3174900060374735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>38.895468479999998</v>
+      </c>
+      <c r="C40">
+        <v>-76.975544060000004</v>
+      </c>
+      <c r="D40">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E40">
+        <v>-74.006</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>3.4815062513037125</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>-4.7868755800000073</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>2.2970905731328322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>38.886403450000003</v>
+      </c>
+      <c r="C41">
+        <v>-76.984349929999993</v>
+      </c>
+      <c r="D41">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E41">
+        <v>-74.006</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>3.4937505153320352</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>-4.8047464799999915</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>2.3024732477170544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>38.925579339999999</v>
+      </c>
+      <c r="C42">
+        <v>-76.971844189999999</v>
+      </c>
+      <c r="D42">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E42">
+        <v>-74.006</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>3.4627141734321061</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>-4.7530648500000012</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>2.2888171364817276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>38.89843664</v>
+      </c>
+      <c r="C43">
+        <v>-76.93292649</v>
+      </c>
+      <c r="D43">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E43">
+        <v>-74.006</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>3.4436627419034824</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>-4.7412898500000011</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>2.2804142240103022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>38.917903459999998</v>
+      </c>
+      <c r="C44">
+        <v>-77.016664599999999</v>
+      </c>
+      <c r="D44">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E44">
+        <v>-74.006</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>3.5051041244158685</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>-4.8055611400000018</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>2.3074587674154743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>38.895108389999997</v>
+      </c>
+      <c r="C45">
+        <v>-76.929914049999994</v>
+      </c>
+      <c r="D45">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E45">
+        <v>-74.006</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>3.4428587192697537</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>-4.7416056599999976</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>2.2800592577737389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>38.895502569999998</v>
+      </c>
+      <c r="C46">
+        <v>-76.990968330000001</v>
+      </c>
+      <c r="D46">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E46">
+        <v>-74.006</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>3.494653899914498</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>-4.8022657600000045</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>2.3028701333744084</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>38.952918410000002</v>
+      </c>
+      <c r="C47">
+        <v>-77.006451100000007</v>
+      </c>
+      <c r="D47">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E47">
+        <v>-74.006</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>3.4784896168182207</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>-4.7603326900000056</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>2.295763468669568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>38.93940473</v>
+      </c>
+      <c r="C48">
+        <v>-77.062142230000006</v>
+      </c>
+      <c r="D48">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E48">
+        <v>-74.006</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>3.5334029084789904</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>-4.8295375000000078</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>2.3198617705028095</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>38.921667470000003</v>
+      </c>
+      <c r="C49">
+        <v>-76.980998900000003</v>
+      </c>
+      <c r="D49">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E49">
+        <v>-74.006</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>3.4725745773165797</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>-4.7661314300000015</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>2.2931601581160335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>38.839829850000001</v>
+      </c>
+      <c r="C50">
+        <v>-76.988505369999999</v>
+      </c>
+      <c r="D50">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E50">
+        <v>-74.006</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>3.5218397841000448</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>-4.8554755199999988</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>2.3147978131769618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>38.87810339</v>
+      </c>
+      <c r="C51">
+        <v>-76.995600019999998</v>
+      </c>
+      <c r="D51">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E51">
+        <v>-74.006</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>3.5076801351219986</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>-4.8242966299999992</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>2.3085891780849663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>38.935276010000003</v>
+      </c>
+      <c r="C52">
+        <v>-77.075994570000006</v>
+      </c>
+      <c r="D52">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E52">
+        <v>-74.006</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>3.5474579905694497</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>-4.8475185600000046</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>2.3260096247836906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>38.925812610000001</v>
+      </c>
+      <c r="C53">
+        <v>-76.991324030000001</v>
+      </c>
+      <c r="D53">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E53">
+        <v>-74.006</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>3.4792935340546447</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>-4.7723114200000012</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>2.2961171725169125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>38.924555060000003</v>
+      </c>
+      <c r="C54">
+        <v>-77.104574130000003</v>
+      </c>
+      <c r="D54">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E54">
+        <v>-74.006</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>3.577566436076467</v>
+      </c>
+      <c r="I54" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="3"/>
-        <v>0.11956796950872492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="J54" s="7">
+        <f t="shared" si="5"/>
+        <v>-4.8868190700000014</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>2.3391521512918749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>38.963030009999997</v>
+      </c>
+      <c r="C55">
+        <v>-77.025286460000004</v>
+      </c>
+      <c r="D55">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E55">
+        <v>-74.006</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>3.4896684291554072</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>-4.7690564500000079</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>2.3006794303663218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>38.938129089999997</v>
+      </c>
+      <c r="C56">
+        <v>-77.027893820000003</v>
+      </c>
+      <c r="D56">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E56">
+        <v>-74.006</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>3.5044684473047338</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>-4.7965647300000072</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>2.3071797755965573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>38.878780900000002</v>
+      </c>
+      <c r="C57">
+        <v>-76.992201829999999</v>
+      </c>
+      <c r="D57">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E57">
+        <v>-74.006</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>3.50442968664805</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>-4.8202209299999978</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>2.3071627634173191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58">
+        <v>38.966714799999998</v>
+      </c>
+      <c r="C58">
+        <v>-77.053617410000001</v>
+      </c>
+      <c r="D58">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E58">
+        <v>-74.006</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>3.5123760338827852</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>-4.793702610000004</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>2.3106491309520472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59">
+        <v>38.885974840000003</v>
+      </c>
+      <c r="C59">
+        <v>-76.97704736</v>
+      </c>
+      <c r="D59">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E59">
+        <v>-74.006</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>3.4877517945765564</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>-4.7978725199999985</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>2.2998369500401905</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>38.848018430000003</v>
+      </c>
+      <c r="C60">
+        <v>-76.970885089999996</v>
+      </c>
+      <c r="D60">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E60">
+        <v>-74.006</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>3.5025639038732668</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="5"/>
+        <v>-4.8296666599999938</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="4"/>
+        <v>2.3063437910518299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61">
+        <v>38.878046730000001</v>
+      </c>
+      <c r="C61">
+        <v>-77.012786879999993</v>
+      </c>
+      <c r="D61">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E61">
+        <v>-74.006</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>3.5223695012754956</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="5"/>
+        <v>-4.841540149999993</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="4"/>
+        <v>2.3150299186480079</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62">
+        <v>38.936356429999996</v>
+      </c>
+      <c r="C62">
+        <v>-76.977106140000004</v>
+      </c>
+      <c r="D62">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E62">
+        <v>-74.006</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>3.4616792821606226</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>-4.7475497100000084</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="4"/>
+        <v>2.2883610790346522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63">
+        <v>38.968886689999998</v>
+      </c>
+      <c r="C63">
+        <v>-77.018051679999999</v>
+      </c>
+      <c r="D63">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E63">
+        <v>-74.006</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>3.4804725190390435</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="5"/>
+        <v>-4.7559649900000025</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="4"/>
+        <v>2.29663584769798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64">
+        <v>38.924167599999997</v>
+      </c>
+      <c r="C64">
+        <v>-76.957789880000007</v>
+      </c>
+      <c r="D64">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E64">
+        <v>-74.006</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>3.4514155585788608</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="5"/>
+        <v>-4.7404222800000113</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="4"/>
+        <v>2.2838355823330372</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65">
+        <v>38.939405659999998</v>
+      </c>
+      <c r="C65">
+        <v>-76.992435979999996</v>
+      </c>
+      <c r="D65">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E65">
+        <v>-74.006</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>3.4732876857212078</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="5"/>
+        <v>-4.7598303199999989</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="4"/>
+        <v>2.2934740876961839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66">
+        <v>38.940806360000003</v>
+      </c>
+      <c r="C66">
+        <v>-77.032727660000006</v>
+      </c>
+      <c r="D66">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E66">
+        <v>-74.006</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>3.5072841042620935</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="5"/>
+        <v>-4.798721300000004</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="4"/>
+        <v>2.3084154089598528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67">
+        <v>38.864273269999998</v>
+      </c>
+      <c r="C67">
+        <v>-76.988259450000001</v>
+      </c>
+      <c r="D67">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E67">
+        <v>-74.006</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G73" si="6">RANK(H67,$H$2:$H$73,1)</f>
+        <v>52</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H73" si="7">SQRT((B67-D67)^2 + (C67-E67)^2)</f>
+        <v>3.5086924200674545</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I73" si="8">RANK(J67,$J$2:$J$73,1)</f>
+        <v>16</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J73" si="9">SUM((B67-D67) + (C67-E67))</f>
+        <v>-4.830786180000004</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K73" si="10">RANK(L67,$L$2:$L$73,1)</f>
+        <v>52</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L73" si="11">((ABS(B67 - D67)^2) + (ABS(C67 - E67)^2))^(1/3)</f>
+        <v>2.3090333154427674</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68">
+        <v>38.942682470000001</v>
+      </c>
+      <c r="C68">
+        <v>-77.031500699999995</v>
+      </c>
+      <c r="D68">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E68">
+        <v>-74.006</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="7"/>
+        <v>3.5052775290572589</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="9"/>
+        <v>-4.7956182299999952</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="11"/>
+        <v>2.3075348699118714</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69">
+        <v>38.883444169999997</v>
+      </c>
+      <c r="C69">
+        <v>-76.983189710000005</v>
+      </c>
+      <c r="D69">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E69">
+        <v>-74.006</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="7"/>
+        <v>3.4943098491812252</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="9"/>
+        <v>-4.806545540000009</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="11"/>
+        <v>2.3027189849475542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70">
+        <v>38.877501250000002</v>
+      </c>
+      <c r="C70">
+        <v>-76.993550490000004</v>
+      </c>
+      <c r="D70">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E70">
+        <v>-74.006</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>3.5062486266736452</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="9"/>
+        <v>-4.8228492400000036</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="11"/>
+        <v>2.3079610345810808</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71">
+        <v>38.930378400000002</v>
+      </c>
+      <c r="C71">
+        <v>-77.017154450000007</v>
+      </c>
+      <c r="D71">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E71">
+        <v>-74.006</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>3.4991538808548275</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="9"/>
+        <v>-4.7935760500000058</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="11"/>
+        <v>2.3048466093047435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72">
+        <v>38.908088130000003</v>
+      </c>
+      <c r="C72">
+        <v>-77.053286409999998</v>
+      </c>
+      <c r="D72">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E72">
+        <v>-74.006</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="7"/>
+        <v>3.5416012477817951</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="9"/>
+        <v>-4.8519982799999966</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="11"/>
+        <v>2.3234488067999939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73">
+        <v>38.918005950000001</v>
+      </c>
+      <c r="C73">
+        <v>-77.078200730000006</v>
+      </c>
+      <c r="D73">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="E73">
+        <v>-74.006</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>3.5580476398339544</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="9"/>
+        <v>-4.866994780000006</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="11"/>
+        <v>2.3306362969172834</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="82" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="83" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
